--- a/ProcessingCheckListWss/bin/Debug/Result/Итоговая.xlsx
+++ b/ProcessingCheckListWss/bin/Debug/Result/Итоговая.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>Средний %</x:t>
   </x:si>
@@ -26,9 +26,6 @@
   </x:si>
   <x:si>
     <x:t>Менеджер \ Месяц</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Февраль</x:t>
   </x:si>
   <x:si>
     <x:t>Март</x:t>
@@ -550,48 +547,44 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O14"/>
+  <x:dimension ref="A1:M14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="19.700625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.740625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="8.110625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.550625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="19.700625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.740625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="6.650625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="8.550625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="19.700625" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="8.270625" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="8.550625" style="0" customWidth="1"/>
-    <x:col min="14" max="15" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="8.110625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.550625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="19.700625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="6.650625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="8.550625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="19.700625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="8.270625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="8.550625" style="0" customWidth="1"/>
+    <x:col min="12" max="13" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:15">
+    <x:row r="1" spans="1:13">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s"/>
-      <x:c r="C1" s="2" t="s"/>
-      <x:c r="D1" s="3" t="s"/>
-      <x:c r="F1" s="1" t="s">
+      <x:c r="C1" s="3" t="s"/>
+      <x:c r="E1" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G1" s="2" t="s"/>
-      <x:c r="H1" s="2" t="s"/>
-      <x:c r="I1" s="3" t="s"/>
-      <x:c r="K1" s="1" t="s">
+      <x:c r="F1" s="2" t="s"/>
+      <x:c r="G1" s="3" t="s"/>
+      <x:c r="I1" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="L1" s="2" t="s"/>
-      <x:c r="M1" s="3" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:15">
+      <x:c r="J1" s="2" t="s"/>
+      <x:c r="K1" s="3" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:13">
       <x:c r="A2" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -601,405 +594,337 @@
       <x:c r="C2" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D2" s="4" t="s">
+      <x:c r="E2" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F2" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G2" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I2" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J2" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K2" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="A3" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F2" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G2" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H2" s="4" t="s">
+      <x:c r="B3" s="6" t="n">
+        <x:v>0.8622</x:v>
+      </x:c>
+      <x:c r="C3" s="6" t="s"/>
+      <x:c r="E3" s="5" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F3" s="7" t="n">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G3" s="7" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I3" s="5" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="J3" s="8" t="n">
+        <x:v>0.0578356481481481</x:v>
+      </x:c>
+      <x:c r="K3" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="A4" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B4" s="6" t="n">
+        <x:v>0.9244</x:v>
+      </x:c>
+      <x:c r="C4" s="6" t="s"/>
+      <x:c r="E4" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F4" s="7" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G4" s="7" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I4" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J4" s="8" t="n">
+        <x:v>0.00099537037037037</x:v>
+      </x:c>
+      <x:c r="K4" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="A5" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="6" t="s"/>
+      <x:c r="C5" s="6" t="n">
+        <x:v>0.983</x:v>
+      </x:c>
+      <x:c r="E5" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F5" s="7" t="s"/>
+      <x:c r="G5" s="7" t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I5" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J5" s="8" t="s"/>
+      <x:c r="K5" s="8" t="n">
+        <x:v>0.0644212962962963</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="A6" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B6" s="6" t="n">
+        <x:v>0.9054</x:v>
+      </x:c>
+      <x:c r="C6" s="6" t="n">
+        <x:v>0.8148</x:v>
+      </x:c>
+      <x:c r="E6" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F6" s="7" t="n">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G6" s="7" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I6" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="J6" s="8" t="n">
+        <x:v>0.0473726851851852</x:v>
+      </x:c>
+      <x:c r="K6" s="8" t="n">
+        <x:v>0.00998842592592592</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="A7" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B7" s="6" t="n">
+        <x:v>0.8392</x:v>
+      </x:c>
+      <x:c r="C7" s="6" t="s"/>
+      <x:c r="E7" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F7" s="7" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G7" s="7" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I7" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J7" s="8" t="n">
+        <x:v>0.000416666666666667</x:v>
+      </x:c>
+      <x:c r="K7" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="A8" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B8" s="6" t="n">
+        <x:v>0.8636</x:v>
+      </x:c>
+      <x:c r="C8" s="6" t="n">
+        <x:v>0.8616</x:v>
+      </x:c>
+      <x:c r="E8" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F8" s="7" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G8" s="7" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="I2" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K2" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="L2" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="M2" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:15">
-      <x:c r="A3" s="5" t="s">
+      <x:c r="I8" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="J8" s="8" t="n">
+        <x:v>0.0352777777777778</x:v>
+      </x:c>
+      <x:c r="K8" s="8" t="n">
+        <x:v>0.0110648148148148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="A9" s="5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B9" s="6" t="n">
+        <x:v>0.9588</x:v>
+      </x:c>
+      <x:c r="C9" s="6" t="n">
+        <x:v>0.9689</x:v>
+      </x:c>
+      <x:c r="E9" s="5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F9" s="7" t="n">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G9" s="7" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I9" s="5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J9" s="8" t="n">
+        <x:v>0.0781597222222222</x:v>
+      </x:c>
+      <x:c r="K9" s="8" t="n">
+        <x:v>0.0279861111111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="A10" s="5" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B10" s="6" t="n">
+        <x:v>0.9148</x:v>
+      </x:c>
+      <x:c r="C10" s="6" t="n">
+        <x:v>0.9473</x:v>
+      </x:c>
+      <x:c r="E10" s="5" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F10" s="7" t="n">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="G10" s="7" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I10" s="5" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J10" s="8" t="n">
+        <x:v>0.143923611111111</x:v>
+      </x:c>
+      <x:c r="K10" s="8" t="n">
+        <x:v>0.176574074074074</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="A11" s="5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B11" s="6" t="n">
+        <x:v>0.841</x:v>
+      </x:c>
+      <x:c r="C11" s="6" t="n">
+        <x:v>0.8897</x:v>
+      </x:c>
+      <x:c r="E11" s="5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F11" s="7" t="n">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G11" s="7" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I11" s="5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J11" s="8" t="n">
+        <x:v>0.0580787037037037</x:v>
+      </x:c>
+      <x:c r="K11" s="8" t="n">
+        <x:v>0.0332523148148148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="A12" s="5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B12" s="6" t="n">
+        <x:v>0.8564</x:v>
+      </x:c>
+      <x:c r="C12" s="6" t="n">
+        <x:v>0.9722</x:v>
+      </x:c>
+      <x:c r="E12" s="5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F12" s="7" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G12" s="7" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B3" s="6" t="n">
-        <x:v>0.8153</x:v>
-      </x:c>
-      <x:c r="C3" s="6" t="n">
-        <x:v>0.8622</x:v>
-      </x:c>
-      <x:c r="D3" s="6" t="s"/>
-      <x:c r="F3" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G3" s="7" t="n">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H3" s="7" t="n">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="I3" s="7" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K3" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="L3" s="8" t="n">
-        <x:v>0.0578356481481481</x:v>
-      </x:c>
-      <x:c r="M3" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:15">
-      <x:c r="A4" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B4" s="6" t="n">
-        <x:v>0.7757</x:v>
-      </x:c>
-      <x:c r="C4" s="6" t="n">
-        <x:v>0.9244</x:v>
-      </x:c>
-      <x:c r="D4" s="6" t="s"/>
-      <x:c r="F4" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G4" s="7" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H4" s="7" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I4" s="7" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K4" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="L4" s="8" t="n">
-        <x:v>0.00099537037037037</x:v>
-      </x:c>
-      <x:c r="M4" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:15">
-      <x:c r="A5" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B5" s="6" t="s"/>
-      <x:c r="C5" s="6" t="s"/>
-      <x:c r="D5" s="6" t="n">
-        <x:v>0.983</x:v>
-      </x:c>
-      <x:c r="F5" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G5" s="7" t="s"/>
-      <x:c r="H5" s="7" t="s"/>
-      <x:c r="I5" s="7" t="n">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="K5" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="L5" s="8" t="s"/>
-      <x:c r="M5" s="8" t="n">
-        <x:v>0.0644212962962963</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:15">
-      <x:c r="A6" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B6" s="6" t="n">
-        <x:v>0.8977</x:v>
-      </x:c>
-      <x:c r="C6" s="6" t="n">
-        <x:v>0.9054</x:v>
-      </x:c>
-      <x:c r="D6" s="6" t="n">
-        <x:v>0.8148</x:v>
-      </x:c>
-      <x:c r="F6" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G6" s="7" t="n">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H6" s="7" t="n">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="I6" s="7" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="K6" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L6" s="8" t="n">
-        <x:v>0.0473726851851852</x:v>
-      </x:c>
-      <x:c r="M6" s="8" t="n">
-        <x:v>0.00998842592592592</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:15">
-      <x:c r="A7" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B7" s="6" t="n">
-        <x:v>0.9206</x:v>
-      </x:c>
-      <x:c r="C7" s="6" t="n">
-        <x:v>0.8392</x:v>
-      </x:c>
-      <x:c r="D7" s="6" t="s"/>
-      <x:c r="F7" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G7" s="7" t="n">
+      <x:c r="I12" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="H7" s="7" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I7" s="7" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K7" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="L7" s="8" t="n">
-        <x:v>0.000416666666666667</x:v>
-      </x:c>
-      <x:c r="M7" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:15">
-      <x:c r="A8" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B8" s="6" t="n">
-        <x:v>0.7627</x:v>
-      </x:c>
-      <x:c r="C8" s="6" t="n">
-        <x:v>0.8636</x:v>
-      </x:c>
-      <x:c r="D8" s="6" t="n">
-        <x:v>0.8616</x:v>
-      </x:c>
-      <x:c r="F8" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G8" s="7" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H8" s="7" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I8" s="7" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="K8" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="L8" s="8" t="n">
-        <x:v>0.0352777777777778</x:v>
-      </x:c>
-      <x:c r="M8" s="8" t="n">
-        <x:v>0.0110648148148148</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:15">
-      <x:c r="A9" s="5" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B9" s="6" t="n">
-        <x:v>0.8929</x:v>
-      </x:c>
-      <x:c r="C9" s="6" t="n">
-        <x:v>0.9588</x:v>
-      </x:c>
-      <x:c r="D9" s="6" t="n">
-        <x:v>0.9689</x:v>
-      </x:c>
-      <x:c r="F9" s="5" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G9" s="7" t="n">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="H9" s="7" t="n">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="I9" s="7" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K9" s="5" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="L9" s="8" t="n">
-        <x:v>0.0781597222222222</x:v>
-      </x:c>
-      <x:c r="M9" s="8" t="n">
-        <x:v>0.0279861111111111</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:15">
-      <x:c r="A10" s="5" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B10" s="6" t="n">
-        <x:v>0.9139</x:v>
-      </x:c>
-      <x:c r="C10" s="6" t="n">
-        <x:v>0.9148</x:v>
-      </x:c>
-      <x:c r="D10" s="6" t="n">
-        <x:v>0.9473</x:v>
-      </x:c>
-      <x:c r="F10" s="5" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G10" s="7" t="n">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="H10" s="7" t="n">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="I10" s="7" t="n">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="K10" s="5" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="L10" s="8" t="n">
-        <x:v>0.143923611111111</x:v>
-      </x:c>
-      <x:c r="M10" s="8" t="n">
-        <x:v>0.176574074074074</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:15">
-      <x:c r="A11" s="5" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B11" s="6" t="n">
-        <x:v>0.795</x:v>
-      </x:c>
-      <x:c r="C11" s="6" t="n">
-        <x:v>0.841</x:v>
-      </x:c>
-      <x:c r="D11" s="6" t="n">
-        <x:v>0.8897</x:v>
-      </x:c>
-      <x:c r="F11" s="5" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G11" s="7" t="n">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H11" s="7" t="n">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="I11" s="7" t="n">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="K11" s="5" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="L11" s="8" t="n">
-        <x:v>0.0580787037037037</x:v>
-      </x:c>
-      <x:c r="M11" s="8" t="n">
-        <x:v>0.0332523148148148</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:15">
-      <x:c r="A12" s="5" t="s">
+      <x:c r="J12" s="8" t="n">
+        <x:v>0.0128472222222222</x:v>
+      </x:c>
+      <x:c r="K12" s="8" t="n">
+        <x:v>0.00740740740740741</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="A13" s="5" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B12" s="6" t="n">
-        <x:v>0.9216</x:v>
-      </x:c>
-      <x:c r="C12" s="6" t="n">
-        <x:v>0.8564</x:v>
-      </x:c>
-      <x:c r="D12" s="6" t="n">
-        <x:v>0.9722</x:v>
-      </x:c>
-      <x:c r="F12" s="5" t="s">
+      <x:c r="B13" s="6" t="n">
+        <x:v>0.8588</x:v>
+      </x:c>
+      <x:c r="C13" s="6" t="n">
+        <x:v>0.8557</x:v>
+      </x:c>
+      <x:c r="E13" s="5" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G12" s="7" t="n">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="H12" s="7" t="n">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I12" s="7" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="K12" s="5" t="s">
+      <x:c r="F13" s="7" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G13" s="7" t="n">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="L12" s="8" t="n">
-        <x:v>0.0128472222222222</x:v>
-      </x:c>
-      <x:c r="M12" s="8" t="n">
-        <x:v>0.00740740740740741</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:15">
-      <x:c r="A13" s="5" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B13" s="6" t="n">
-        <x:v>0.835</x:v>
-      </x:c>
-      <x:c r="C13" s="6" t="n">
-        <x:v>0.8588</x:v>
-      </x:c>
-      <x:c r="D13" s="6" t="n">
-        <x:v>0.8557</x:v>
-      </x:c>
-      <x:c r="F13" s="5" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G13" s="7" t="n">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="H13" s="7" t="n">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="I13" s="7" t="n">
+      <x:c r="I13" s="5" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="K13" s="5" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="L13" s="8" t="n">
+      <x:c r="J13" s="8" t="n">
         <x:v>0.0438888888888889</x:v>
       </x:c>
-      <x:c r="M13" s="8" t="n">
+      <x:c r="K13" s="8" t="n">
         <x:v>0.0192013888888889</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
-    <x:mergeCell ref="A1:D1"/>
-    <x:mergeCell ref="F1:I1"/>
-    <x:mergeCell ref="K1:M1"/>
+    <x:mergeCell ref="A1:C1"/>
+    <x:mergeCell ref="E1:G1"/>
+    <x:mergeCell ref="I1:K1"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
